--- a/Project/DemoQA.xlsx
+++ b/Project/DemoQA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="333">
   <si>
     <t>Function Id</t>
   </si>
@@ -663,6 +663,561 @@
   </si>
   <si>
     <t>When we click on the Join now button the page go to the Selenium Training registration page. But we click on the out side the button the same functionality work. https://www.toolsqa.com/selenium-training/</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Verify the internet connection is stable or not.</t>
+  </si>
+  <si>
+    <t>Verify the Browser working or not.</t>
+  </si>
+  <si>
+    <t>Verify the DemoQA link working on the different browser or not.</t>
+  </si>
+  <si>
+    <t>Verify the DemoQA Design is as per requirement or not.</t>
+  </si>
+  <si>
+    <t>Verify the user click on the "TOOLSQA" icon working or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the user can click on "Selenium Cerificcation trainning" or not </t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Live instructor led Online Trainning" or not</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Weekend classes" or not</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Regular Assessment" or not</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Life time access to session recordings" or not</t>
+  </si>
+  <si>
+    <t>Verify the user click on the "Join NOW" button working or not.</t>
+  </si>
+  <si>
+    <t>Verify the all module dimension is same or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Element" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Forms" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Alert, Frame &amp; Windows" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Widgets" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Interactions" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can click on "Book Store Application" module or not.</t>
+  </si>
+  <si>
+    <t>Verify the Footer Display properly or not.</t>
+  </si>
+  <si>
+    <t>Verify the application behavior when the internet connection is unstable or completely disconnected.</t>
+  </si>
+  <si>
+    <t>Verify if the browser crashes or does not load the DemoQA website.</t>
+  </si>
+  <si>
+    <t>Verify if the DemoQA link does not work on certain browsers (e.g., outdated or unsupported browsers).</t>
+  </si>
+  <si>
+    <t>Verify if the DemoQA design has alignment issues or breaks on different screen resolutions or devices.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "TOOLSQA" icon does not redirect to the home page or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on "Selenium Certification Training" does not open the corresponding page or section.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on "Live Instructor Led Online Training" displays a broken link or no action occurs.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on "Weekend Classes" does not display relevant details or redirects to the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on "Regular Assessment" fails to load the details or displays incorrect information.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on "Lifetime Access to Session Recordings" does not load the content or gives an error.</t>
+  </si>
+  <si>
+    <t>Verify if the "Join NOW" button does not respond or throws an error when clicked.</t>
+  </si>
+  <si>
+    <t>Verify if the modules are not of uniform dimensions or overlap with each other on certain screens.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Elements" module does not load the module or results in a broken link.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Forms" module displays an error or does not navigate to the correct section.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Alert, Frame &amp; Windows" module fails to display the related content or features.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Widgets" module leads to broken functionality or incorrect behavior.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Interactions" module does not open or behaves incorrectly.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Book Store Application" module fails to display the books or related content.</t>
+  </si>
+  <si>
+    <t>Verify if the footer is not displayed properly, is misaligned, or has missing elements.</t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>Verify the user click on the Registration Button is working or not.</t>
+  </si>
+  <si>
+    <t>Verify the user registration page display or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can fill all the required field or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can enter Captcha code or not.</t>
+  </si>
+  <si>
+    <t>Verify the text box blank the error message display or not.</t>
+  </si>
+  <si>
+    <t>verify the captcha change or not when we reload page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the country dropdown list display or not. </t>
+  </si>
+  <si>
+    <t>Verify the user select the country this show on the country field or not.</t>
+  </si>
+  <si>
+    <t>Verify the user  enter Valid email format or not.</t>
+  </si>
+  <si>
+    <t>Verify the user can enter valid phone number or not.</t>
+  </si>
+  <si>
+    <t>Verify the phone number field only numarical character valid or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Your message box  text area is resizeable or not. </t>
+  </si>
+  <si>
+    <t>Verify the user can click on the send button or not.</t>
+  </si>
+  <si>
+    <t>Verify the user only enter alphabetic value or not in First name.</t>
+  </si>
+  <si>
+    <t>Verify the user only enter alphabetic value or not in Last name.</t>
+  </si>
+  <si>
+    <t>Verify the user only enter alphabetic value or not in city field.</t>
+  </si>
+  <si>
+    <t>Verify the behavior when the user clicks on the "Registration Button," but it does not respond or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify if the registration page does not display or shows a blank/incorrect page after clicking the button.</t>
+  </si>
+  <si>
+    <t>Verify the behavior when the user leaves required fields blank and attempts to submit the form.</t>
+  </si>
+  <si>
+    <t>Verify if the Captcha field does not accept input or throws an error even when the correct Captcha is entered.</t>
+  </si>
+  <si>
+    <t>Verify if the First Name field accepts non-alphabetic characters like numbers or special symbols.</t>
+  </si>
+  <si>
+    <t>Verify if no error message is displayed when mandatory text fields are left blank.</t>
+  </si>
+  <si>
+    <t>Verify if the Captcha does not change upon reloading the page.</t>
+  </si>
+  <si>
+    <t>Verify if the country dropdown list does not display or fails to load options.</t>
+  </si>
+  <si>
+    <t>Verify if selecting a country does not update the country field or displays the incorrect selection.</t>
+  </si>
+  <si>
+    <t>Verify if the Last Name field accepts non-alphabetic characters like numbers or special symbols.</t>
+  </si>
+  <si>
+    <t>Verify if the Email field allows invalid formats (e.g., missing "@" or domain).</t>
+  </si>
+  <si>
+    <t>Verify if the Phone Number field accepts invalid characters like alphabets or special symbols.</t>
+  </si>
+  <si>
+    <t>Verify if the Phone Number field accepts more or fewer digits than the allowed range.</t>
+  </si>
+  <si>
+    <t>Verify if the "Your Message" text area cannot be resized or breaks the page layout when resized.</t>
+  </si>
+  <si>
+    <t>Verify the behavior when the "Send" button does not respond or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify if the City field accepts non-alphabetic characters like numbers or special symbols.</t>
+  </si>
+  <si>
+    <t>Verify if submitting the form with invalid data (e.g., empty fields, invalid email, etc.) completes successfully.</t>
+  </si>
+  <si>
+    <t>Verify if error messages for invalid input are not displayed or are unclear/inconsistent.</t>
+  </si>
+  <si>
+    <t>Verify if the form submission fails even when all fields are correctly filled.</t>
+  </si>
+  <si>
+    <t>Verify the captcha is visible or not.</t>
+  </si>
+  <si>
+    <t>Verify the user enter all valid details and click on the submit the success message display or not.</t>
+  </si>
+  <si>
+    <t>Verify the user enter city name is valid or invalid.</t>
+  </si>
+  <si>
+    <t>Elements Module</t>
+  </si>
+  <si>
+    <t>Elements Module- TextBox</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Elements" module does not display the components or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Text Box" option does not open the text box view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify if the "Full Name" field accepts numerical or special characters without displaying an error.</t>
+  </si>
+  <si>
+    <t>Verify if invalid email formats (e.g., missing "@" or domain) are accepted without validation error.</t>
+  </si>
+  <si>
+    <t>Verify if the "Current Address" field does not accept special characters, spaces, or exceeds character limits.</t>
+  </si>
+  <si>
+    <t>Verify if the "Permanent Address" field does not allow certain valid address formats (e.g., special characters).</t>
+  </si>
+  <si>
+    <t>Verify if entering valid details and clicking the "Submit" button does not display the entered data.</t>
+  </si>
+  <si>
+    <t>Verify if clicking the "Submit" button does not respond or triggers an error message unnecessarily.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Elements" module and the different components are displayed.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Text Box" option and the text box view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify the user can enter alphabetic values in "Full Name" and error effects are displayed for invalid input like numerics or special characters.</t>
+  </si>
+  <si>
+    <t>Verify the user enters a valid email address in the email field.</t>
+  </si>
+  <si>
+    <t>Verify the user enters a valid "Current Address" in the respective field.</t>
+  </si>
+  <si>
+    <t>Verify the user enters a valid "Permanent Address" in the respective field.</t>
+  </si>
+  <si>
+    <t>Verify that after entering valid details, clicking the "Submit" button displays the entered data.</t>
+  </si>
+  <si>
+    <t>Verify the "Submit" button is clickable and performs the intended action.</t>
+  </si>
+  <si>
+    <t>Verify the page layout is responsive across different screen sizes and resolutions.</t>
+  </si>
+  <si>
+    <t>Verify if the page layout breaks or overlaps when viewed on smaller or larger screens.</t>
+  </si>
+  <si>
+    <t>Verify tooltips or placeholder text guide the user when filling out the form fields.</t>
+  </si>
+  <si>
+    <t>Verify if tooltips or placeholder text are missing or do not provide clear instructions.</t>
+  </si>
+  <si>
+    <t>Verify the tab order allows the user to navigate fields sequentially using the keyboard.</t>
+  </si>
+  <si>
+    <t>Verify if the tab order skips fields or is not intuitive for the user.</t>
+  </si>
+  <si>
+    <t>Verify the form resets when the user clicks on the "Reset" button.</t>
+  </si>
+  <si>
+    <t>Verify if the form reset button does not clear all entered data.</t>
+  </si>
+  <si>
+    <t>Verify the "Full Name" field allows entering a reasonable number of characters (e.g., up to 50 characters).</t>
+  </si>
+  <si>
+    <t>Verify if entering an excessively long name breaks the field layout or causes validation issues.</t>
+  </si>
+  <si>
+    <t>Verify the page loads within an acceptable time when accessing the form.</t>
+  </si>
+  <si>
+    <t>Verify if the form page takes too long to load or fails to load entirely.</t>
+  </si>
+  <si>
+    <t>Verify the "Current Address" and "Permanent Address" fields support multi-line input.</t>
+  </si>
+  <si>
+    <t>Verify if the fields do not accept multi-line input or truncate the entered address.</t>
+  </si>
+  <si>
+    <t>Verify the user can copy and paste values into form fields without issues.</t>
+  </si>
+  <si>
+    <t>Verify if copying and pasting data into form fields does not work or causes errors.</t>
+  </si>
+  <si>
+    <t>Verify field labels are visible and accurately describe the purpose of each field.</t>
+  </si>
+  <si>
+    <t>Verify if field labels are missing, unclear, or misaligned.</t>
+  </si>
+  <si>
+    <t>Elements Module- Check Box</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Check Box" option and the check box view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Check Box" option does not open the check box view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the dropdown arrow and it expands to show the child elements.</t>
+  </si>
+  <si>
+    <t>Verify if clicking the dropdown arrow does not expand to show the child elements or triggers an error.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the check box, and the box gets checked.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the check box does not check the box or results in unexpected behavior.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on an already checked check box and it gets unchecked.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on an already checked box does not uncheck it or shows a delay.</t>
+  </si>
+  <si>
+    <t>Verify the selected items are displayed below the check box as a list.</t>
+  </si>
+  <si>
+    <t>Verify if the selected items do not display below the box or show incorrect selections.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the plus icon, and all items are displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the plus icon does not display all items or only some items appear.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the minus icon, and all child items collapse, leaving only the parent check box.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the minus icon does not collapse all items or leaves some child items displayed.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on multiple check boxes, and the selections are reflected correctly in the list.</t>
+  </si>
+  <si>
+    <t>Verify if selecting multiple check boxes results in incorrect or missing items in the selected list.</t>
+  </si>
+  <si>
+    <t>Verify the check box functionality works consistently across different browsers and devices.</t>
+  </si>
+  <si>
+    <t>Verify if the check box behavior differs or fails on certain browsers or devices.</t>
+  </si>
+  <si>
+    <t>Verify tooltips or hover messages display properly for check box labels (if applicable).</t>
+  </si>
+  <si>
+    <t>Verify if tooltips or hover messages are missing, incorrect, or overlap other UI elements.</t>
+  </si>
+  <si>
+    <t>Verify the user can use the keyboard (Tab and Space) to navigate and select/deselect check boxes.</t>
+  </si>
+  <si>
+    <t>Verify if keyboard navigation does not work for selecting/deselecting check boxes or skips some elements.</t>
+  </si>
+  <si>
+    <t>Verify the check box state persists when navigating between pages or refreshing the page.</t>
+  </si>
+  <si>
+    <t>Verify if the check box state is lost when the user navigates away and returns or refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify the user cannot select disabled check boxes (if any exist).</t>
+  </si>
+  <si>
+    <t>Verify if disabled check boxes can be selected or modified.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Radio button" option and the Radio button view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Radio button" option does not open the Radio button view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify the user selects only one radio button at a time, ensuring exclusivity.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on a radio button, and it is selected as expected.</t>
+  </si>
+  <si>
+    <t>Verify the user can toggle between different radio buttons, and the selection updates correctly.</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to select multiple radio buttons simultaneously, breaking the exclusivity.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on a radio button does not trigger any action or shows a delay in response.</t>
+  </si>
+  <si>
+    <t>Verify if non-functional or disabled radio buttons can still be selected or show inconsistent behavior.</t>
+  </si>
+  <si>
+    <t>Verify if the radio button state resets unexpectedly upon navigation or page refresh.</t>
+  </si>
+  <si>
+    <t>Verify if radio button labels or tooltips do not align with their functionality or are missing.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on a radio button triggers unintended actions or errors on the page.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Elements Module- Web Tables</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Web Tables" option and the Web Tables view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Web Tables" option does not open the Web Tables view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Add" button, and it functions as expected.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Add" button does not trigger any action or shows an error.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Add" button, and the registration form is displayed correctly.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Add" button does not display the registration form or loads it incorrectly.</t>
+  </si>
+  <si>
+    <t>Verify the user enters valid details in all required fields of the registration form.</t>
+  </si>
+  <si>
+    <t>Verify if the registration form accepts invalid details in required fields without displaying validation errors.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Submit" button, and the data is added to the table.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Submit" button does not save the data or shows an error even with valid inputs.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Search" bar, and it functions as expected for filtering data.</t>
+  </si>
+  <si>
+    <t>Verify if the "Search" bar does not return results for existing entries or works incorrectly.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Edit" icon and edits existing data successfully.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Edit" icon does not allow editing or displays an error.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Delete" (bin) icon, and the corresponding data is removed from the table.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Delete" (bin) icon does not delete the data or removes the wrong data.</t>
+  </si>
+  <si>
+    <t>Elements Module-  Buttons</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Buttons" option and the buttons view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Buttons" option does not open the buttons view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify the user double-clicks on the "Double Click Me" button, and the corresponding message is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if double-clicking on the "Double Click Me" button does not display any message or shows an error.</t>
+  </si>
+  <si>
+    <t>Verify the user right-clicks on the "Right Click Me" button, and the corresponding message is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if right-clicking on the "Right Click Me" button does not display any message or shows an error.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Click Me" button, and the corresponding message is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Click Me" button does not display any message or triggers an error.</t>
+  </si>
+  <si>
+    <t>Verify the user clicks all the buttons randomly, and all corresponding messages are displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking buttons randomly does not display the corresponding messages or triggers errors.</t>
+  </si>
+  <si>
+    <t>Verify if any button gets stuck, causing repeated errors or does not respond to user actions.</t>
+  </si>
+  <si>
+    <t>Verify if performing the correct action on any button (double-click, right-click, etc.) results in no response.</t>
+  </si>
+  <si>
+    <t>Verify if incorrect actions (e.g., single-clicking on the "Double Click Me" button) trigger unexpected errors.</t>
+  </si>
+  <si>
+    <t>Verify if buttons overlap or do not appear in their expected layout, making them unusable.</t>
   </si>
 </sst>
 </file>
@@ -799,7 +1354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1139,15 +1694,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1288,6 +1853,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,745 +2172,745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="64" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="12.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="64" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>2.1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>1</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>2</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>4</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>5</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>6</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>8</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+    <row r="31" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
         <v>9</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>10</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>1</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>2</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>1</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>2</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+    <row r="44" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
         <v>3</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+    <row r="45" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
         <v>4</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>5</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
+      <c r="A47" s="19">
         <v>6</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
     </row>
     <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
         <v>1</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
         <v>2</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
         <v>3</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>4</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>5</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>6</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>7</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
         <v>8</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <v>9</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20">
+      <c r="A61" s="19">
         <v>10</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
     </row>
     <row r="65" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>1</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <v>2</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+    <row r="68" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
         <v>3</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <v>4</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>5</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>6</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
     </row>
     <row r="75" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
+      <c r="A76" s="13">
         <v>1</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+    <row r="77" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
         <v>2</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <v>3</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+    <row r="79" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
         <v>4</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="20">
+      <c r="A80" s="19">
         <v>5</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2335,27 +2936,1203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="43.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="93.6" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="50" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>2</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>5</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>7</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>8</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>12</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>15</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>16</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>17</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="56">
+        <v>18</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="57">
+        <v>19</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>2</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>3</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>4</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>5</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>6</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>7</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>8</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>9</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>10</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>11</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>12</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>13</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>14</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>15</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>16</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19">
+        <v>17</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>1</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
+        <v>2</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
+        <v>3</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="16">
+        <v>4</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="16">
+        <v>5</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
+        <v>6</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
+        <v>7</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
+        <v>8</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
+        <v>9</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
+        <v>10</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
+        <v>11</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
+        <v>12</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
+        <v>13</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="19">
+        <v>14</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
+        <v>1</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="16">
+        <v>2</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
+        <v>3</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
+        <v>4</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="16">
+        <v>5</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
+        <v>6</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
+        <v>7</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="19">
+        <v>8</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
+        <v>1</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="16">
+        <v>2</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="16">
+        <v>3</v>
+      </c>
+      <c r="B102" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="16">
+        <v>4</v>
+      </c>
+      <c r="B103" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="16">
+        <v>5</v>
+      </c>
+      <c r="B104" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="16">
+        <v>6</v>
+      </c>
+      <c r="B105" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="16">
+        <v>7</v>
+      </c>
+      <c r="B106" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="16">
+        <v>8</v>
+      </c>
+      <c r="B107" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="19">
+        <v>9</v>
+      </c>
+      <c r="B108" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
+        <v>1</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="16">
+        <v>2</v>
+      </c>
+      <c r="B114" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="16">
+        <v>3</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="16">
+        <v>4</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="16">
+        <v>5</v>
+      </c>
+      <c r="B117" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="16">
+        <v>6</v>
+      </c>
+      <c r="B118" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="16">
+        <v>7</v>
+      </c>
+      <c r="B119" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" s="53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="16">
+        <v>8</v>
+      </c>
+      <c r="B120" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="16">
+        <v>9</v>
+      </c>
+      <c r="B121" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="19">
+        <v>10</v>
+      </c>
+      <c r="B122" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="54" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2371,31 +4148,31 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2428,107 +4205,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="55" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15" style="6" customWidth="1"/>
-    <col min="8" max="9" width="19.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="6" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="13.5546875" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="15.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="55" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15" style="5" customWidth="1"/>
+    <col min="8" max="9" width="19.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="5"/>
+    <col min="14" max="14" width="13.5546875" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/DemoQA.xlsx
+++ b/Project/DemoQA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="344">
   <si>
     <t>Function Id</t>
   </si>
@@ -1218,6 +1218,39 @@
   </si>
   <si>
     <t>Verify if buttons overlap or do not appear in their expected layout, making them unusable.</t>
+  </si>
+  <si>
+    <t>Elements Module-  Links</t>
+  </si>
+  <si>
+    <t>Verify the user clicks on the "Links" option and the Links view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Links" option does not open the links view page or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the two types of links are provided and are working correctly (e.g., functional links).</t>
+  </si>
+  <si>
+    <t>Verify that the two types of links are not working or lead to incorrect pages or dead links.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "open in new tab" type link opens a new tab as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "open in new tab" type link does not open a new tab or results in an error.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "send API call" link triggers the expected API call and returns the correct response.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "send API call" link does not trigger any API call or returns an incorrect or failed response.</t>
+  </si>
+  <si>
+    <t>Verify that the API message returned is correct and matches the expected output.</t>
+  </si>
+  <si>
+    <t>Verify that the API message returned is incorrect, misleading, or an error message is shown.</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1830,6 +1863,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1854,40 +1923,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2185,20 +2221,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
@@ -2301,11 +2337,11 @@
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
@@ -2364,11 +2400,11 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
     </row>
     <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
@@ -2493,11 +2529,11 @@
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
     </row>
     <row r="35" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
@@ -2543,11 +2579,11 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
     </row>
     <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27" t="s">
@@ -2628,11 +2664,11 @@
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27" t="s">
@@ -2757,11 +2793,11 @@
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
     </row>
     <row r="65" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="27" t="s">
@@ -2842,11 +2878,11 @@
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
     </row>
     <row r="75" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="27" t="s">
@@ -2936,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2952,18 +2988,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="47" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2974,7 +3010,7 @@
       <c r="B4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="44" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2985,7 +3021,7 @@
       <c r="B5" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2996,7 +3032,7 @@
       <c r="B6" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3007,7 +3043,7 @@
       <c r="B7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="45" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3018,7 +3054,7 @@
       <c r="B8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="45" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3029,7 +3065,7 @@
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="45" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3040,7 +3076,7 @@
       <c r="B10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="45" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3051,7 +3087,7 @@
       <c r="B11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="45" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3062,7 +3098,7 @@
       <c r="B12" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="45" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3073,7 +3109,7 @@
       <c r="B13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3084,7 +3120,7 @@
       <c r="B14" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="45" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3095,7 +3131,7 @@
       <c r="B15" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="45" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3106,7 +3142,7 @@
       <c r="B16" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="45" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3117,7 +3153,7 @@
       <c r="B17" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="45" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3128,7 +3164,7 @@
       <c r="B18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="45" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3139,7 +3175,7 @@
       <c r="B19" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="45" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3150,7 +3186,7 @@
       <c r="B20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="45" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3161,7 +3197,7 @@
       <c r="B21" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="45" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3172,24 +3208,24 @@
       <c r="B22" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="46" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="47" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3200,7 +3236,7 @@
       <c r="B26" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="44" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3211,7 +3247,7 @@
       <c r="B27" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="45" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3222,7 +3258,7 @@
       <c r="B28" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="45" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3233,7 +3269,7 @@
       <c r="B29" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="45" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3244,7 +3280,7 @@
       <c r="B30" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="45" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3255,7 +3291,7 @@
       <c r="B31" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="45" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3266,7 +3302,7 @@
       <c r="B32" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="45" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3277,7 +3313,7 @@
       <c r="B33" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="45" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3288,7 +3324,7 @@
       <c r="B34" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="45" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3299,7 +3335,7 @@
       <c r="B35" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="45" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3310,7 +3346,7 @@
       <c r="B36" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="45" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3321,7 +3357,7 @@
       <c r="B37" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="45" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3332,7 +3368,7 @@
       <c r="B38" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="45" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3343,7 +3379,7 @@
       <c r="B39" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="45" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3354,7 +3390,7 @@
       <c r="B40" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="45" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3365,7 +3401,7 @@
       <c r="B41" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="45" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3376,23 +3412,23 @@
       <c r="B42" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="45" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="56">
+      <c r="A43" s="48">
         <v>18</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="45" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="57">
+      <c r="A44" s="49">
         <v>19</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3404,23 +3440,23 @@
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="47" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3428,10 +3464,10 @@
       <c r="A49" s="13">
         <v>1</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="44" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3439,10 +3475,10 @@
       <c r="A50" s="16">
         <v>2</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="45" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3450,10 +3486,10 @@
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="45" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3461,10 +3497,10 @@
       <c r="A52" s="16">
         <v>4</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="45" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3472,10 +3508,10 @@
       <c r="A53" s="16">
         <v>5</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="45" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3483,10 +3519,10 @@
       <c r="A54" s="16">
         <v>6</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="45" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3494,10 +3530,10 @@
       <c r="A55" s="16">
         <v>7</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="45" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3505,10 +3541,10 @@
       <c r="A56" s="16">
         <v>8</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="45" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3516,10 +3552,10 @@
       <c r="A57" s="16">
         <v>9</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="45" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3527,10 +3563,10 @@
       <c r="A58" s="16">
         <v>10</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="45" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3538,10 +3574,10 @@
       <c r="A59" s="16">
         <v>11</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="45" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3549,10 +3585,10 @@
       <c r="A60" s="16">
         <v>12</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="45" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3560,10 +3596,10 @@
       <c r="A61" s="16">
         <v>13</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="45" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3571,10 +3607,10 @@
       <c r="A62" s="16">
         <v>14</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="45" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3582,10 +3618,10 @@
       <c r="A63" s="16">
         <v>15</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="45" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3593,10 +3629,10 @@
       <c r="A64" s="16">
         <v>16</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="45" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3604,27 +3640,27 @@
       <c r="A65" s="19">
         <v>17</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="46" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="47" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3632,10 +3668,10 @@
       <c r="A70" s="13">
         <v>1</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="44" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3643,10 +3679,10 @@
       <c r="A71" s="16">
         <v>2</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="45" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3654,10 +3690,10 @@
       <c r="A72" s="16">
         <v>3</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="45" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3665,10 +3701,10 @@
       <c r="A73" s="16">
         <v>4</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="45" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3676,10 +3712,10 @@
       <c r="A74" s="16">
         <v>5</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="45" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3687,10 +3723,10 @@
       <c r="A75" s="16">
         <v>6</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="45" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3698,10 +3734,10 @@
       <c r="A76" s="16">
         <v>7</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="45" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3709,10 +3745,10 @@
       <c r="A77" s="16">
         <v>8</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="45" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3720,10 +3756,10 @@
       <c r="A78" s="16">
         <v>9</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="45" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3731,10 +3767,10 @@
       <c r="A79" s="16">
         <v>10</v>
       </c>
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="45" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3742,10 +3778,10 @@
       <c r="A80" s="16">
         <v>11</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="45" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3753,10 +3789,10 @@
       <c r="A81" s="16">
         <v>12</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="45" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3764,10 +3800,10 @@
       <c r="A82" s="16">
         <v>13</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="45" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3775,27 +3811,27 @@
       <c r="A83" s="19">
         <v>14</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="46" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="47" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3803,10 +3839,10 @@
       <c r="A88" s="13">
         <v>1</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="44" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3814,10 +3850,10 @@
       <c r="A89" s="16">
         <v>2</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="45" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3825,7 +3861,7 @@
       <c r="A90" s="16">
         <v>3</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="43" t="s">
         <v>291</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -3836,10 +3872,10 @@
       <c r="A91" s="16">
         <v>4</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="45" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3847,10 +3883,10 @@
       <c r="A92" s="16">
         <v>5</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="45" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3883,24 +3919,24 @@
       <c r="B95" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="46" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="47" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3908,10 +3944,10 @@
       <c r="A100" s="13">
         <v>1</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="44" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3919,10 +3955,10 @@
       <c r="A101" s="16">
         <v>2</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="45" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3930,10 +3966,10 @@
       <c r="A102" s="16">
         <v>3</v>
       </c>
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="45" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3941,10 +3977,10 @@
       <c r="A103" s="16">
         <v>4</v>
       </c>
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="45" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3952,10 +3988,10 @@
       <c r="A104" s="16">
         <v>5</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="45" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3963,10 +3999,10 @@
       <c r="A105" s="16">
         <v>6</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="45" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3974,10 +4010,10 @@
       <c r="A106" s="16">
         <v>7</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="45" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3985,10 +4021,10 @@
       <c r="A107" s="16">
         <v>8</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="45" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3996,27 +4032,27 @@
       <c r="A108" s="19">
         <v>9</v>
       </c>
-      <c r="B108" s="59" t="s">
+      <c r="B108" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="46" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="47" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="50" t="s">
+      <c r="C112" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4024,10 +4060,10 @@
       <c r="A113" s="13">
         <v>1</v>
       </c>
-      <c r="B113" s="58" t="s">
+      <c r="B113" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="52" t="s">
+      <c r="C113" s="44" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4035,10 +4071,10 @@
       <c r="A114" s="16">
         <v>2</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="45" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4046,10 +4082,10 @@
       <c r="A115" s="16">
         <v>3</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="45" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4057,10 +4093,10 @@
       <c r="A116" s="16">
         <v>4</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C116" s="45" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4068,10 +4104,10 @@
       <c r="A117" s="16">
         <v>5</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="45" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4079,10 +4115,10 @@
       <c r="A118" s="16">
         <v>6</v>
       </c>
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="45" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4090,10 +4126,10 @@
       <c r="A119" s="16">
         <v>7</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="C119" s="45" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4101,10 +4137,10 @@
       <c r="A120" s="16">
         <v>8</v>
       </c>
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="45" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4112,10 +4148,10 @@
       <c r="A121" s="16">
         <v>9</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="45" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4123,11 +4159,94 @@
       <c r="A122" s="19">
         <v>10</v>
       </c>
-      <c r="B122" s="59" t="s">
+      <c r="B122" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="46" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="60">
+        <v>1</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="48">
+        <v>2</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="48">
+        <v>3</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="48">
+        <v>4</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="48">
+        <v>5</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C131" s="45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="49">
+        <v>6</v>
+      </c>
+      <c r="B132" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DemoQA.xlsx
+++ b/Project/DemoQA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="466">
   <si>
     <t>Function Id</t>
   </si>
@@ -1252,12 +1252,399 @@
   <si>
     <t>Verify that the API message returned is incorrect, misleading, or an error message is shown.</t>
   </si>
+  <si>
+    <t>Elements Module-  Broken Links - Images</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Elements" module and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Elements" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Broken Links - Images" option, and the correct "Broken Links - Images" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Broken Links - Images" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that a valid image (e.g., TOOLSQA image) is displayed correctly.</t>
+  </si>
+  <si>
+    <t>Verify that a valid image (e.g., TOOLSQA image) fails to load or displays incorrectly (e.g., broken or blank).</t>
+  </si>
+  <si>
+    <t>Verify that when a broken image is encountered, the "Crash" image symbol (e.g., broken image icon) is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that when a broken image is encountered, no "Crash" image symbol is displayed, or an error is shown.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a valid link opens the correct page or performs the intended action (e.g., navigating to the right URL).</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a valid link leads to a page not loading, or redirects to an incorrect page or broken link.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a broken link displays an error message or a page with a "Page Not Found" status.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a broken link does not display an error message, or results in a page that still partially loads with incorrect content.</t>
+  </si>
+  <si>
+    <t>Elements Module-  Upload and Download</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Upload and Download" option, and the correct "Upload and Download" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Upload and Download" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Elements" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Download" button, and the file begins to download.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Download" button does not trigger the download or shows an error message.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Download" button, and the correct file is downloaded.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Download" button, but the file is not downloaded or the wrong file is downloaded.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Choose File" button, and the file selection dialog appears.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Choose File" button does not open the file selection dialog, or the dialog opens incorrectly.</t>
+  </si>
+  <si>
+    <t>Verify that when the user clicks on the "Choose File" button, only a folder is displayed, and the user can select only one document.</t>
+  </si>
+  <si>
+    <t>Verify that when the user clicks on the "Choose File" button, multiple files can be selected or no folder is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that after selecting a document in the file selection dialog, the document's name appears in the "Choose File" button input.</t>
+  </si>
+  <si>
+    <t>Verify that after selecting a document, the file name does not appear in the "Choose File" button input, or the incorrect file name is displayed.</t>
+  </si>
+  <si>
+    <t>Elements Module-  Dynamic Properties</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Dynamic Properties" option, and the correct "Dynamic Properties" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Dynamic Properties" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the dynamic functionality on the page (such as interactive elements, buttons, or properties) works correctly as intended.</t>
+  </si>
+  <si>
+    <t>Verify that the dynamic functionality on the page (e.g., buttons, interactive components) does not work, or triggers incorrect behavior or errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms Module- Practice Form </t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Forms" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Forms" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Practice form" option, and the correct "Practice form" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Practice form" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user click on the submit button working or not.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the submit button without entering any required fields, and no error is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the submit button and proper validations display for empty fields.</t>
+  </si>
+  <si>
+    <t>Verify if the submit button allows form submission without completing all required fields.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters a valid first name and last name.</t>
+  </si>
+  <si>
+    <t>Verify that the first name and last name fields accept invalid data (e.g., numerical or special characters).</t>
+  </si>
+  <si>
+    <t>Verify that the user enters a valid email address.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the email address field accepts an invalid email format (e.g., missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or domain).</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the user selects at least one radio button for the given gender list.</t>
+  </si>
+  <si>
+    <t>Verify if no error message is displayed when no radio button is selected.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters a valid 10-digit mobile number.</t>
+  </si>
+  <si>
+    <t>Verify that the mobile number field accepts fewer than 10 digits without displaying an error message.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the date of birth field and the calendar opens properly.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the date of birth field does not open the calendar or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters valid text in the subject field.</t>
+  </si>
+  <si>
+    <t>Verify if the subject field accepts invalid or unsupported characters.</t>
+  </si>
+  <si>
+    <t>Verify the user can select one or more hobbies checkboxes.</t>
+  </si>
+  <si>
+    <t>Verify if hobbies checkboxes cannot be selected or deselected.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Choose File" button, and the file selection works.</t>
+  </si>
+  <si>
+    <t>Verify if the "Choose File" button is unresponsive or does not display the selected file name.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters text in the current address field.</t>
+  </si>
+  <si>
+    <t>Verify if the current address field does not accept valid input or does not display it.</t>
+  </si>
+  <si>
+    <t>Verify that the user selects a state from the dropdown list and it displays correctly.</t>
+  </si>
+  <si>
+    <t>Verify if the state dropdown list does not display or if selected state values do not appear.</t>
+  </si>
+  <si>
+    <t>Verify that the user selects a city from the dropdown list and it displays correctly.</t>
+  </si>
+  <si>
+    <t>Verify if the city dropdown list does not display or if selected city values do not appear.</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module- Browser Windows</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module- Alerts</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Alerts, Frame &amp; Windows" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Alerts, Frame &amp; Windows" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Browser Windows" option, and the correct "Browser Windows" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Browser Windows" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Alerts" option, and the correct "Alerts" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Alerts" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module- Frames</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Frames" option, and the correct "Frames" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Frames" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module- Nested Frames</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Nested Frames" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module- Modal Dialogs</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Modal Dialogs" option, and the correct "Modal Dialogs" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Modal Dialogs" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "New Tab" button and a new tab opens successfully.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "New Tab" button does not open a new tab or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "New Window" button and a new window opens successfully.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "New Window" button does not open a new window or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "New Window Message" button, and the message window opens properly.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "New Window Message" button does not open the message window or displays an error.</t>
+  </si>
+  <si>
+    <t>Verify that the "New Window Message" page loads successfully after opening the message window.</t>
+  </si>
+  <si>
+    <t>Verify if the "New Window Message" fails to load properly or displays a loading error after opening.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Click Me" first button and sees the alert message pop-up box.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Click Me" first button does not trigger the alert message pop-up box.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Click Me" second button and sees the alert message pop-up box after 5 seconds.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Click Me" second button does not display the alert message after the specified time.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Click Me" third button and sees the alert message with the selected option displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Click Me" third button does not display the selected option in the alert message.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Click Me" third button and the alert box allows typing a message that is displayed on the page.</t>
+  </si>
+  <si>
+    <t>Verify if the alert message box does not allow entering a message or does not display the entered message.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Frames" option and two frames (fixed size and movable frame) are displayed.</t>
+  </si>
+  <si>
+    <t>Verify if the two frames (fixed size and movable frame) are not displayed after clicking the "Frames" option.</t>
+  </si>
+  <si>
+    <t>Verify that the text inside the movable frame can be scrolled using the sliders (up-down and left-right).</t>
+  </si>
+  <si>
+    <t>Verify if the sliders do not function properly, and the text inside the movable frame cannot be scrolled.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Nested Frames" option, and the correct "Nested Frames" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the "Nested Frames" page displays both the parent frame and child frame.</t>
+  </si>
+  <si>
+    <t>Verify if the "Nested Frames" page does not display the parent frame and child frame properly.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Small Modal" button and the small dialog box is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Small Modal" button does not display the small dialog box or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Large Modal" button and the large dialog box is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on the "Large Modal" button does not display the large dialog box or causes an error.</t>
+  </si>
+  <si>
+    <t>Forms Module</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows  Module</t>
+  </si>
+  <si>
+    <t>Widgets Module</t>
+  </si>
+  <si>
+    <t>Widgets Module - Accordian</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Widgets" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Widgets" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Accordion" option, and the correct "Accordion" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Accordion" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on any one question, and the corresponding answer is displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on any question does not display the corresponding answer or shows the wrong response.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on a displayed answer, and the answer is hidden.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on a displayed answer does not hide the answer or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on all questions, and all corresponding answers are displayed.</t>
+  </si>
+  <si>
+    <t>Verify if clicking on all questions does not display the answers or shows incomplete or wrong responses.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Auto complete</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,6 +1741,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1387,7 +1789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1740,11 +2142,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1899,6 +2316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,8 +2343,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,20 +2641,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
@@ -2337,11 +2757,11 @@
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
     </row>
     <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
@@ -2400,11 +2820,11 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
@@ -2529,11 +2949,11 @@
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
     </row>
     <row r="35" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
@@ -2579,11 +2999,11 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27" t="s">
@@ -2664,11 +3084,11 @@
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
     </row>
     <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27" t="s">
@@ -2793,11 +3213,11 @@
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
     </row>
     <row r="65" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="27" t="s">
@@ -2878,11 +3298,11 @@
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
     </row>
     <row r="75" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="27" t="s">
@@ -2972,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2986,1267 +3406,2123 @@
     <col min="4" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="40" t="s">
+    <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C11" s="45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C12" s="45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C13" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C14" s="45" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C18" s="45" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C19" s="45" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C22" s="45" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19">
+    <row r="23" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B23" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C23" s="46" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="40" t="s">
+    <row r="26" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C26" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>1</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C28" s="45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C29" s="45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>4</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C30" s="45" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>5</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
+        <v>15</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
         <v>16</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C42" s="45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
         <v>17</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C43" s="45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="48">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="48">
         <v>18</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C44" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49">
+    <row r="45" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="49">
         <v>19</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="47" t="s">
-        <v>226</v>
-      </c>
-    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="40" t="s">
+    <row r="49" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B49" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C49" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>1</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B50" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C50" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
         <v>2</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B51" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C51" s="45" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B52" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C52" s="45" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
         <v>4</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B53" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C53" s="45" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>5</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
+        <v>5</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
         <v>6</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B55" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C55" s="45" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>7</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
+        <v>11</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
         <v>12</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B61" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C61" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
         <v>13</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B62" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C62" s="45" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>14</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
+        <v>15</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
         <v>16</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B65" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C65" s="45" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19">
+    <row r="66" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="19">
         <v>17</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B66" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C66" s="46" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="47" t="s">
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="47" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="40" t="s">
+    <row r="70" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B70" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C70" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
         <v>1</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B71" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C71" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
         <v>2</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B72" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C72" s="45" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <v>3</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
+        <v>6</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
         <v>7</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B77" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C77" s="45" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
         <v>8</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B78" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C78" s="45" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
-        <v>9</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
+        <v>10</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
         <v>11</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B81" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C81" s="45" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
+    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
         <v>12</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B82" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C82" s="45" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="16">
         <v>13</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B83" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C83" s="45" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="19">
+    <row r="84" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="19">
         <v>14</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B84" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C84" s="46" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="47" t="s">
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="47" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="40" t="s">
+    <row r="88" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B88" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C88" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
         <v>1</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B89" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C89" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
         <v>2</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B90" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C90" s="45" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
-        <v>3</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
-        <v>6</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>297</v>
+        <v>5</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C94" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="16">
+        <v>7</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="19">
+    <row r="96" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="19">
         <v>8</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B96" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C96" s="46" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="47" t="s">
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="47" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="40" t="s">
+    <row r="100" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B100" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C100" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
         <v>1</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B101" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C101" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
+    <row r="102" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="16">
         <v>2</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B102" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C101" s="45" t="s">
+      <c r="C102" s="45" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
-        <v>3</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C103" s="45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
+        <v>7</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="16">
         <v>8</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B108" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="45" t="s">
+      <c r="C108" s="45" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="19">
+    <row r="109" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="19">
         <v>9</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B109" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="C109" s="46" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="47" t="s">
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="47" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="40" t="s">
+    <row r="113" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B113" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="42" t="s">
+      <c r="C113" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
+    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
         <v>1</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B114" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C114" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
+    <row r="115" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="16">
         <v>2</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B115" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="45" t="s">
+      <c r="C115" s="45" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>3</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
+        <v>3</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="16">
         <v>4</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B117" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="45" t="s">
+      <c r="C117" s="45" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
-        <v>5</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" s="43" t="s">
         <v>300</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" s="43" t="s">
         <v>300</v>
       </c>
       <c r="C121" s="45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="16">
+        <v>9</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="45" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="19">
+    <row r="123" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="19">
         <v>10</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B123" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C122" s="46" t="s">
+      <c r="C123" s="46" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="47" t="s">
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A126" s="40" t="s">
+    <row r="127" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B127" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="42" t="s">
+      <c r="C127" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="60">
+    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="52">
         <v>1</v>
       </c>
-      <c r="B127" s="50" t="s">
+      <c r="B128" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C127" s="44" t="s">
+      <c r="C128" s="44" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="48">
-        <v>2</v>
-      </c>
-      <c r="B128" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="48">
+        <v>3</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="48">
         <v>4</v>
       </c>
-      <c r="B130" s="43" t="s">
+      <c r="B131" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C131" s="45" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="48">
+    <row r="132" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="48">
         <v>5</v>
       </c>
-      <c r="B131" s="43" t="s">
+      <c r="B132" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="C131" s="45" t="s">
+      <c r="C132" s="45" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="49">
+    <row r="133" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="49">
         <v>6</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B133" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C132" s="46" t="s">
+      <c r="C133" s="46" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="52">
+        <v>1</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="48">
+        <v>2</v>
+      </c>
+      <c r="B139" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="48">
+        <v>3</v>
+      </c>
+      <c r="B140" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="48">
+        <v>4</v>
+      </c>
+      <c r="B141" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C141" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="48">
+        <v>5</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="49">
+        <v>6</v>
+      </c>
+      <c r="B143" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B146" s="47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A147" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="52">
+        <v>1</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C148" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="48">
+        <v>2</v>
+      </c>
+      <c r="B149" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="48">
+        <v>3</v>
+      </c>
+      <c r="B150" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="48">
+        <v>4</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="48">
+        <v>5</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C152" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="48">
+        <v>6</v>
+      </c>
+      <c r="B153" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C153" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="49">
+        <v>7</v>
+      </c>
+      <c r="B154" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" s="46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B157" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A158" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="52">
+        <v>1</v>
+      </c>
+      <c r="B159" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C159" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="48">
+        <v>2</v>
+      </c>
+      <c r="B160" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="49">
+        <v>3</v>
+      </c>
+      <c r="B161" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="164" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B164" s="47" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B165" s="47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A166" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="13">
+        <v>1</v>
+      </c>
+      <c r="B167" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="C167" s="44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="16">
+        <v>2</v>
+      </c>
+      <c r="B168" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="16">
+        <v>3</v>
+      </c>
+      <c r="B169" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="16">
+        <v>4</v>
+      </c>
+      <c r="B170" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C170" s="45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="16">
+        <v>5</v>
+      </c>
+      <c r="B171" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" s="45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A172" s="16">
+        <v>6</v>
+      </c>
+      <c r="B172" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C172" s="45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="16">
+        <v>7</v>
+      </c>
+      <c r="B173" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C173" s="45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="16">
+        <v>8</v>
+      </c>
+      <c r="B174" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C174" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="16">
+        <v>9</v>
+      </c>
+      <c r="B175" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="16">
+        <v>10</v>
+      </c>
+      <c r="B176" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C176" s="45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="16">
+        <v>11</v>
+      </c>
+      <c r="B177" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" s="45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="16">
+        <v>12</v>
+      </c>
+      <c r="B178" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C178" s="45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="16">
+        <v>13</v>
+      </c>
+      <c r="B179" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C179" s="45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="16">
+        <v>14</v>
+      </c>
+      <c r="B180" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C180" s="45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="19">
+        <v>15</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C181" s="46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="184" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B184" s="47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B185" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A186" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="13">
+        <v>1</v>
+      </c>
+      <c r="B187" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C187" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="16">
+        <v>2</v>
+      </c>
+      <c r="B188" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" s="45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="16">
+        <v>3</v>
+      </c>
+      <c r="B189" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="C189" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="16">
+        <v>4</v>
+      </c>
+      <c r="B190" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="C190" s="45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="16">
+        <v>5</v>
+      </c>
+      <c r="B191" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" s="45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="19">
+        <v>6</v>
+      </c>
+      <c r="B192" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C192" s="46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="195" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B195" s="47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A196" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="13">
+        <v>1</v>
+      </c>
+      <c r="B197" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C197" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="16">
+        <v>2</v>
+      </c>
+      <c r="B198" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="C198" s="45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="16">
+        <v>3</v>
+      </c>
+      <c r="B199" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" s="45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="16">
+        <v>4</v>
+      </c>
+      <c r="B200" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C200" s="45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="16">
+        <v>5</v>
+      </c>
+      <c r="B201" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C201" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="19">
+        <v>6</v>
+      </c>
+      <c r="B202" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="C202" s="46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B206" s="47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A207" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="13">
+        <v>1</v>
+      </c>
+      <c r="B208" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C208" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="16">
+        <v>2</v>
+      </c>
+      <c r="B209" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="16">
+        <v>3</v>
+      </c>
+      <c r="B210" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C210" s="45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="19">
+        <v>4</v>
+      </c>
+      <c r="B211" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="C211" s="46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B215" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A216" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="13">
+        <v>1</v>
+      </c>
+      <c r="B217" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C217" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="16">
+        <v>2</v>
+      </c>
+      <c r="B218" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" s="45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="19">
+        <v>3</v>
+      </c>
+      <c r="B219" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="C219" s="46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="222" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B222" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A223" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="13">
+        <v>1</v>
+      </c>
+      <c r="B224" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C224" s="44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A225" s="16">
+        <v>2</v>
+      </c>
+      <c r="B225" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C225" s="45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="16">
+        <v>3</v>
+      </c>
+      <c r="B226" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" s="45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="19">
+        <v>4</v>
+      </c>
+      <c r="B227" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="C227" s="46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B230" s="47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B231" s="47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A232" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A233" s="52">
+        <v>1</v>
+      </c>
+      <c r="B233" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C233" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A234" s="48">
+        <v>2</v>
+      </c>
+      <c r="B234" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C234" s="45" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="48">
+        <v>3</v>
+      </c>
+      <c r="B235" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C235" s="45" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="48">
+        <v>4</v>
+      </c>
+      <c r="B236" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C236" s="45" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="49">
+        <v>5</v>
+      </c>
+      <c r="B237" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="C237" s="46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="240" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B240" s="47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A241" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="42" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DemoQA.xlsx
+++ b/Project/DemoQA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="603">
   <si>
     <t>Function Id</t>
   </si>
@@ -1638,6 +1638,480 @@
   </si>
   <si>
     <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Widgets Module - Date Picker</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Date Picker" option, and the correct "Date Picker" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Date Picker" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Slider</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Slider" option, and the correct "Slider" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Slider" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Progress Bar</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Progress Bar" option, and the correct "Progress Bar" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Progress Bar" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Tabs</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Tabs" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Tool Tips</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Tool Tips" option, and the correct "Tool Tips" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Tool Tips" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Menu</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Menu" option, and the correct "Menu" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Menu" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Widgets Module - Select Menu</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Select Menu" option, and the correct "Select Menu" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Select Menu" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Auto Complete" option, and the correct "Auto Complete" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Auto Complete" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters more than one fruit name in the field and removes the fruit options as expected.</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot enter or remove multiple fruit names in the field, or the removal fails.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters only one fruit name if required.</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot restrict input to only one fruit name, or the input behaves unexpectedly.</t>
+  </si>
+  <si>
+    <t>Verify that the user can select a date from the calendar table.</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot select a date from the calendar table or encounters an error while selecting.</t>
+  </si>
+  <si>
+    <t>Verify that the user can select both a date and time from the calendar table.</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot select a date and time, or incorrect values are displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the user holds and moves the slider to display the corresponding value accurately in the display box.</t>
+  </si>
+  <si>
+    <t>Verify that the slider value does not update in real-time or mismatches with the display box value.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the start button, and the progress bar starts from 0% to 100%.</t>
+  </si>
+  <si>
+    <t>Verify that the progress bar does not start or shows incorrect progress behavior.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks the stop button, and the progress bar halts at its current position.</t>
+  </si>
+  <si>
+    <t>Verify that the stop button does not stop the progress bar or causes unexpected behavior.</t>
+  </si>
+  <si>
+    <t>Verify that the user sees the progress bar color change to indicate 100% completion, and the reset button is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the color does not change or the reset button fails to display after completion.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the reset button, and the progress bar restarts from 0% to 100%.</t>
+  </si>
+  <si>
+    <t>Verify that the reset button does not restart the progress bar or causes an error.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Tabs" option, and the correct "Tabs" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on a tab, and the corresponding page data is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a tab does not display the data or loads incorrect data.</t>
+  </si>
+  <si>
+    <t>Verify that the user hovers over any button, text box, or link, and the correct tooltip message is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that hovering over an element does not display the tooltip message or displays incorrect information.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on a menu item, and the corresponding sub-menu options are displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a menu item does not display the sub-menu options or shows incorrect options.</t>
+  </si>
+  <si>
+    <t>Verify that the user interacts with various dropdowns, including multi-select options, and all work as expected.</t>
+  </si>
+  <si>
+    <t>Verify that dropdowns do not work as intended, such as failing to allow multi-select or showing incorrect data.</t>
+  </si>
+  <si>
+    <t>Interactions Module</t>
+  </si>
+  <si>
+    <t>interactions Module- Sortable</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Interactions" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Sortable" option, and the correct "Sortable" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Sortable" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>interactions Module- Selectable</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Selectable" option, and the correct "Selectable" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Selectable" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>interactions Module- Resizable</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Resizable" option, and the correct "Resizable" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Resizable" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>interactions Module- Droppable</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Droppable" option, and the correct "Droppable" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Droppable" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Book Store Application Module</t>
+  </si>
+  <si>
+    <t>Book Store Application Module- Login</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Book Store Application" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book Store Application" module does not display the components, or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Login" option, and the correct "Login" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Interactions" module, and the different components are displayed as expected.</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Draggable" option, and the correct "Draggable" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Draggable" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that multiple drag options, such as "Simple Drag," "Axis Restricted Drag," "Container Restricted Drag," and "Cursor Drag," work as expected.</t>
+  </si>
+  <si>
+    <t>Verify that any of the drag options fail to work or behave unexpectedly during drag-and-drop actions.</t>
+  </si>
+  <si>
+    <t>interactions Module- Draggable</t>
+  </si>
+  <si>
+    <t>Verify that multiple options, such as "Simple Drop," "Accept Drop," "Prevent Propagation Drop," and "Revert Draggable Drop," work as expected.</t>
+  </si>
+  <si>
+    <t>Verify that any of the droppable options fail to work or behave incorrectly during drag-and-drop operations.</t>
+  </si>
+  <si>
+    <t>Verify that two text boxes are available: one resizable from 200x200 to 500x300 and another with unlimited resizing options.</t>
+  </si>
+  <si>
+    <t>Verify that resizing the text boxes does not work or behaves inconsistently, such as not respecting size limits.</t>
+  </si>
+  <si>
+    <t>Verify that two tabs, "List" and "Grid," are available, and the selecting functionality works correctly in both.</t>
+  </si>
+  <si>
+    <t>Verify that selecting items in the "List" and "Grid" tabs does not work or behaves incorrectly.</t>
+  </si>
+  <si>
+    <t>Verify that multiple items can be selected and deselected in the "List" and "Grid" tabs.</t>
+  </si>
+  <si>
+    <t>Verify that multiple select/deselect functionality fails or behaves incorrectly in the "List" and "Grid" tabs.</t>
+  </si>
+  <si>
+    <t>Verify that two tabs, "List" and "Grid," are available, and the sorting functionality works correctly in both.</t>
+  </si>
+  <si>
+    <t>Verify that sorting functionality in the "List" and "Grid" tabs does not work or behaves incorrectly.</t>
+  </si>
+  <si>
+    <t>Book Store Application Module- Book Store</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Book Store" option, and the correct "Book store" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book store" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book Store Application" module does not display the components or an error is thrown.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Login" option does not open the correct page, or loads an incorrect page.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters valid credentials and successfully logs in, redirecting to the Book Store page with all functionality (search bar, logout, etc.) working as expected.</t>
+  </si>
+  <si>
+    <t>Verify that the user enters invalid credentials and an error message is not displayed, or the login fails without showing proper feedback.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Logout" button logs the user out and redirects them to the login page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Logout" button does not log the user out, or the user is redirected to an incorrect page after logout.</t>
+  </si>
+  <si>
+    <t>Verify that the "Go to Book Store" button redirects the user to the Book Store home page as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Go to Book Store" button does not navigate to the correct page or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify that the "Delete Account" button successfully deletes the user account and removes all associated data, including selected books.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Delete Account" button does not delete the account, or throws an error without completing the operation.</t>
+  </si>
+  <si>
+    <t>Verify that the "Delete All Books" button removes all books added by the user from the account.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Delete All Books" button fails to delete books, or throws an error without removing the selected books.</t>
+  </si>
+  <si>
+    <t>Verify that the "New User" button redirects the user to the registration page, allowing them to create a new account with valid details.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "New User" button does not navigate to the registration page, or registration fails with valid details.</t>
+  </si>
+  <si>
+    <t>Verify that the "Back to Login" button navigates the user back to the login page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Back to Login" button does not navigate to the login page, or navigates to an incorrect or broken page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book Store" displays the list of books with their details as expected.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book Store" does not display the list of books or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a book link opens the correct book details page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on a book link does not open the details page or shows a blank page with no details.</t>
+  </si>
+  <si>
+    <t>Verify that the search bar allows users to search for a specific book and displays correct results.</t>
+  </si>
+  <si>
+    <t>Verify that the search bar fails to display the correct results for a valid search query.</t>
+  </si>
+  <si>
+    <t>Verify that the "Login" button redirects the user to the login page when clicked.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Login" button does not navigate to the login page, or an error occurs.</t>
+  </si>
+  <si>
+    <t>Verify that the dropdown for displaying the number of books works correctly and updates the book display.</t>
+  </si>
+  <si>
+    <t>Verify that the dropdown for displaying the number of books does not function or shows incorrect results.</t>
+  </si>
+  <si>
+    <t>Book Store Application Module- Profile</t>
+  </si>
+  <si>
+    <t>Verify that the user clicks on the "Profile" option, and the correct "Profile" view page is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Profile" option does not open the correct page, or loads the wrong page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Profile" option without login shows a message prompting login/registration links.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Profile" option without login does not show the expected message or links.</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Profile" option after login displays the Book Store page (empty with no data).</t>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Profile" option after login does not display the Book Store page or throws errors.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Go to Book Store" button redirects the user back to the Book Store home page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Go to Book Store" button does not redirect to the Book Store page.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Delete Account" button successfully deletes the user account.</t>
+  </si>
+  <si>
+    <t>Verify that the "Delete Account" button does not function or displays an error during account deletion.</t>
+  </si>
+  <si>
+    <t>Verify that clicking "Delete All Books" removes all selected books from the profile.</t>
+  </si>
+  <si>
+    <t>Verify that the "Delete All Books" button does not delete the selected books or throws an error.</t>
+  </si>
+  <si>
+    <t>Verify that the "New User" button redirects the user to the registration page with valid fields.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "New User" button does not redirect to the registration page or shows incorrect fields.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Back to Login" button navigates the user back to the login page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Back to Login" button does not navigate to the login page or throws an error.</t>
+  </si>
+  <si>
+    <t>Book Store Application Module- Book store API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that clicking on the "Book API" redirects the user to the correct Swagger API page at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://demoqa.com/swagger/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the Swagger API page loads completely without errors or issues.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the page URL is correct after clicking on the "Book API" option (it should be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://demoqa.com/swagger/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that clicking on the "Book API" does not redirect the user to an incorrect page or throws a 404 error.</t>
+  </si>
+  <si>
+    <t>Verify that the Swagger API page does not load due to server errors or network issues (e.g., page not found).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the URL does not change to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://demoqa.com/swagger/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after clicking on the "Book API" option.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2319,6 +2793,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2342,9 +2819,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2628,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,20 +3115,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
@@ -2757,11 +3231,11 @@
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
@@ -2820,11 +3294,11 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
@@ -2949,11 +3423,11 @@
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
     </row>
     <row r="35" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
@@ -2999,11 +3473,11 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
     </row>
     <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27" t="s">
@@ -3084,11 +3558,11 @@
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
     </row>
     <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27" t="s">
@@ -3213,11 +3687,11 @@
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
     </row>
     <row r="65" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="27" t="s">
@@ -3298,11 +3772,11 @@
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
     </row>
     <row r="75" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="27" t="s">
@@ -3392,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3407,7 +3881,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="53" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5514,7 +5988,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A241" s="40" t="s">
         <v>3</v>
       </c>
@@ -5523,6 +5997,1113 @@
       </c>
       <c r="C241" s="42" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A242" s="52">
+        <v>1</v>
+      </c>
+      <c r="B242" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C242" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="48">
+        <v>2</v>
+      </c>
+      <c r="B243" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C243" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A244" s="48">
+        <v>3</v>
+      </c>
+      <c r="B244" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C244" s="45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="49">
+        <v>4</v>
+      </c>
+      <c r="B245" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B248" s="47" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A249" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="52">
+        <v>1</v>
+      </c>
+      <c r="B250" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C250" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A251" s="48">
+        <v>2</v>
+      </c>
+      <c r="B251" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="C251" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="48">
+        <v>3</v>
+      </c>
+      <c r="B252" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C252" s="45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="49">
+        <v>4</v>
+      </c>
+      <c r="B253" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="C253" s="46" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="256" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B256" s="47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A257" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="52">
+        <v>1</v>
+      </c>
+      <c r="B258" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C258" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="48">
+        <v>2</v>
+      </c>
+      <c r="B259" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="C259" s="45" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="49">
+        <v>3</v>
+      </c>
+      <c r="B260" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="263" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B263" s="47" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A264" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A265" s="52">
+        <v>1</v>
+      </c>
+      <c r="B265" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C265" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A266" s="48">
+        <v>2</v>
+      </c>
+      <c r="B266" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="C266" s="45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A267" s="48">
+        <v>3</v>
+      </c>
+      <c r="B267" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C267" s="45" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" s="48">
+        <v>4</v>
+      </c>
+      <c r="B268" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="C268" s="45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="48">
+        <v>5</v>
+      </c>
+      <c r="B269" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C269" s="45" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="49">
+        <v>6</v>
+      </c>
+      <c r="B270" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="C270" s="46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="273" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B273" s="47" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A274" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="52">
+        <v>1</v>
+      </c>
+      <c r="B275" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C275" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="48">
+        <v>2</v>
+      </c>
+      <c r="B276" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C276" s="45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="49">
+        <v>3</v>
+      </c>
+      <c r="B277" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="C277" s="46" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="280" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B280" s="47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A281" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="52">
+        <v>1</v>
+      </c>
+      <c r="B282" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C282" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A283" s="48">
+        <v>2</v>
+      </c>
+      <c r="B283" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="C283" s="45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="49">
+        <v>3</v>
+      </c>
+      <c r="B284" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="C284" s="46" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B287" s="47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A288" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="52">
+        <v>1</v>
+      </c>
+      <c r="B289" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C289" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="48">
+        <v>2</v>
+      </c>
+      <c r="B290" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="C290" s="45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="49">
+        <v>3</v>
+      </c>
+      <c r="B291" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="C291" s="46" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B294" s="47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A295" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="52">
+        <v>1</v>
+      </c>
+      <c r="B296" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C296" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="48">
+        <v>2</v>
+      </c>
+      <c r="B297" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="C297" s="45" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="49">
+        <v>3</v>
+      </c>
+      <c r="B298" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C298" s="46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B302" s="47" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B303" s="47" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A304" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="52">
+        <v>1</v>
+      </c>
+      <c r="B305" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C305" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="48">
+        <v>2</v>
+      </c>
+      <c r="B306" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="C306" s="45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="49">
+        <v>3</v>
+      </c>
+      <c r="B307" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="C307" s="46" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="309" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B309" s="47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A310" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="52">
+        <v>1</v>
+      </c>
+      <c r="B311" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C311" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A312" s="48">
+        <v>2</v>
+      </c>
+      <c r="B312" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="C312" s="45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A313" s="48">
+        <v>3</v>
+      </c>
+      <c r="B313" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="C313" s="45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="49">
+        <v>4</v>
+      </c>
+      <c r="B314" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="C314" s="46" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="317" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B317" s="47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A318" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A319" s="52">
+        <v>1</v>
+      </c>
+      <c r="B319" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A320" s="48">
+        <v>2</v>
+      </c>
+      <c r="B320" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="C320" s="45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="49">
+        <v>3</v>
+      </c>
+      <c r="B321" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="C321" s="46" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="324" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B324" s="47" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A325" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A326" s="52">
+        <v>1</v>
+      </c>
+      <c r="B326" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C326" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A327" s="48">
+        <v>2</v>
+      </c>
+      <c r="B327" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="C327" s="45" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="49">
+        <v>3</v>
+      </c>
+      <c r="B328" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C328" s="46" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="331" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B331" s="47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A332" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A333" s="52">
+        <v>1</v>
+      </c>
+      <c r="B333" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C333" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A334" s="48">
+        <v>2</v>
+      </c>
+      <c r="B334" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="C334" s="45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="49">
+        <v>3</v>
+      </c>
+      <c r="B335" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="340" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B340" s="47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B341" s="47" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A342" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A343" s="52">
+        <v>1</v>
+      </c>
+      <c r="B343" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C343" s="44" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A344" s="48">
+        <v>2</v>
+      </c>
+      <c r="B344" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="C344" s="45" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="48">
+        <v>3</v>
+      </c>
+      <c r="B345" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="C345" s="45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A346" s="48">
+        <v>4</v>
+      </c>
+      <c r="B346" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="C346" s="45" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A347" s="48">
+        <v>5</v>
+      </c>
+      <c r="B347" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C347" s="45" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A348" s="48">
+        <v>6</v>
+      </c>
+      <c r="B348" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="C348" s="45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A349" s="48">
+        <v>7</v>
+      </c>
+      <c r="B349" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="C349" s="45" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A350" s="48">
+        <v>8</v>
+      </c>
+      <c r="B350" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="C350" s="45" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="49">
+        <v>9</v>
+      </c>
+      <c r="B351" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="C351" s="46" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="353" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B353" s="47" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A354" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="52">
+        <v>1</v>
+      </c>
+      <c r="B355" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C355" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A356" s="48">
+        <v>2</v>
+      </c>
+      <c r="B356" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="C356" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A357" s="48">
+        <v>3</v>
+      </c>
+      <c r="B357" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="C357" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A358" s="48">
+        <v>4</v>
+      </c>
+      <c r="B358" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="C358" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A359" s="48">
+        <v>5</v>
+      </c>
+      <c r="B359" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="C359" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A360" s="48">
+        <v>6</v>
+      </c>
+      <c r="B360" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="C360" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="49">
+        <v>7</v>
+      </c>
+      <c r="B361" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="C361" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="364" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B364" s="47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A365" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A366" s="52">
+        <v>1</v>
+      </c>
+      <c r="B366" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C366" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A367" s="48">
+        <v>2</v>
+      </c>
+      <c r="B367" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="C367" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A368" s="48">
+        <v>3</v>
+      </c>
+      <c r="B368" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="C368" s="45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A369" s="48">
+        <v>4</v>
+      </c>
+      <c r="B369" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="C369" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A370" s="48">
+        <v>5</v>
+      </c>
+      <c r="B370" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="C370" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A371" s="48">
+        <v>6</v>
+      </c>
+      <c r="B371" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="C371" s="45" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A372" s="48">
+        <v>7</v>
+      </c>
+      <c r="B372" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="C372" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A373" s="48">
+        <v>8</v>
+      </c>
+      <c r="B373" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="C373" s="45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="48">
+        <v>9</v>
+      </c>
+      <c r="B374" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="C374" s="45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="49">
+        <v>10</v>
+      </c>
+      <c r="B375" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="C375" s="46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="378" spans="1:3" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B378" s="47" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A379" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A380" s="52">
+        <v>1</v>
+      </c>
+      <c r="B380" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C380" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A381" s="16">
+        <v>2</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A382" s="16">
+        <v>3</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C382" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="45" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A383" s="19">
+        <v>4</v>
+      </c>
+      <c r="B383" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C383" s="23" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
